--- a/data/trans_orig/P36B02_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>509279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>492077</v>
+        <v>492508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>525539</v>
+        <v>525031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8718433681864399</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8423934245184358</v>
+        <v>0.8431315686473221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8996779994734305</v>
+        <v>0.8988080761072308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>819</v>
@@ -765,19 +765,19 @@
         <v>856179</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>840959</v>
+        <v>841867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>871886</v>
+        <v>871181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9282758476905033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9117736996714432</v>
+        <v>0.9127581175947516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9453053211689388</v>
+        <v>0.9445401243215782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1319</v>
@@ -786,19 +786,19 @@
         <v>1365459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1342894</v>
+        <v>1342447</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1387856</v>
+        <v>1387067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9063939325955798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8914154530988541</v>
+        <v>0.8911185226265429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9212614400892816</v>
+        <v>0.9207375977267563</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>74862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58602</v>
+        <v>59110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92064</v>
+        <v>91633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.12815663181356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1003220005265694</v>
+        <v>0.1011919238927692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1576065754815641</v>
+        <v>0.156868431352678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>66154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50447</v>
+        <v>51152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81374</v>
+        <v>80466</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07172415230949665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05469467883106099</v>
+        <v>0.0554598756784216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08822630032855672</v>
+        <v>0.08724188240524836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -857,19 +857,19 @@
         <v>141015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118618</v>
+        <v>119407</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163580</v>
+        <v>164027</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09360606740442019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07873855991071894</v>
+        <v>0.07926240227324344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.108584546901146</v>
+        <v>0.1088814773734569</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1014152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>996703</v>
+        <v>997811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1028346</v>
+        <v>1027385</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9416343679898296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9254330500543956</v>
+        <v>0.9264618687934417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9548139800026364</v>
+        <v>0.9539211416477743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>971</v>
@@ -982,19 +982,19 @@
         <v>998763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>982804</v>
+        <v>982326</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1013165</v>
+        <v>1012663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9444232290362946</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9293323484413945</v>
+        <v>0.9288804266321204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9580409089036164</v>
+        <v>0.9575662183966447</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1963</v>
@@ -1003,19 +1003,19 @@
         <v>2012915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1988048</v>
+        <v>1989533</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2032363</v>
+        <v>2032489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9430160767327498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9313662677119466</v>
+        <v>0.9320621539822225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9521270514277553</v>
+        <v>0.9521862857854747</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>62860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48666</v>
+        <v>49627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80309</v>
+        <v>79201</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05836563201017042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04518601999736357</v>
+        <v>0.04607885835222574</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07456694994560445</v>
+        <v>0.07353813120655812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1053,19 +1053,19 @@
         <v>58775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44373</v>
+        <v>44875</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74734</v>
+        <v>75212</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05557677096370539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04195909109638366</v>
+        <v>0.04243378160335556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07066765155860638</v>
+        <v>0.07111957336787966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -1074,19 +1074,19 @@
         <v>121635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>102187</v>
+        <v>102061</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146502</v>
+        <v>145017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05698392326725024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04787294857224461</v>
+        <v>0.04781371421452536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06863373228805335</v>
+        <v>0.06793784601777761</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>1055459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1035960</v>
+        <v>1038955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1069311</v>
+        <v>1071025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9410349643636108</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9236494629640908</v>
+        <v>0.9263201539275111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9533852748967387</v>
+        <v>0.9549135457263469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>939</v>
@@ -1199,19 +1199,19 @@
         <v>949285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>933623</v>
+        <v>933830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>961126</v>
+        <v>960824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9550724574885358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.939314872301</v>
+        <v>0.9395233615516385</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9669862319981904</v>
+        <v>0.9666821139877979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1981</v>
@@ -1220,19 +1220,19 @@
         <v>2004744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1982304</v>
+        <v>1983864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2022853</v>
+        <v>2023769</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9476301886222526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.937022916514427</v>
+        <v>0.9377602317394486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9561903257476122</v>
+        <v>0.956623093535577</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>66135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52283</v>
+        <v>50569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85634</v>
+        <v>82639</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0589650356363892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04661472510326126</v>
+        <v>0.04508645427365311</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07635053703590917</v>
+        <v>0.07367984607248891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1270,19 +1270,19 @@
         <v>44655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32814</v>
+        <v>33116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60317</v>
+        <v>60110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0449275425114643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0330137680018096</v>
+        <v>0.03331788601220206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06068512769900001</v>
+        <v>0.06047663844836153</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -1291,19 +1291,19 @@
         <v>110790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92681</v>
+        <v>91765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>133230</v>
+        <v>131670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05236981137774747</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04380967425238792</v>
+        <v>0.04337690646442325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0629770834855729</v>
+        <v>0.06223976826055148</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>423792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>412783</v>
+        <v>412011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>431874</v>
+        <v>431901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9476567958503731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9230390724081655</v>
+        <v>0.9213127032293968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9657282285160101</v>
+        <v>0.9657893743438563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>323</v>
@@ -1416,19 +1416,19 @@
         <v>324647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>314975</v>
+        <v>314816</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>331490</v>
+        <v>331231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9516033603131949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9232515791099055</v>
+        <v>0.9227852142772789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9716604109716706</v>
+        <v>0.9709029848452154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>735</v>
@@ -1437,19 +1437,19 @@
         <v>748439</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>735701</v>
+        <v>734267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>759570</v>
+        <v>759246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9493646531570447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9332064010856874</v>
+        <v>0.9313880718071873</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9634831587059965</v>
+        <v>0.9630722559919098</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>23408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15326</v>
+        <v>15299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34417</v>
+        <v>35189</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05234320414962693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03427177148398991</v>
+        <v>0.03421062565614372</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07696092759183454</v>
+        <v>0.0786872967706031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1487,19 +1487,19 @@
         <v>16511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9668</v>
+        <v>9927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26183</v>
+        <v>26342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04839663968680504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02833958902832966</v>
+        <v>0.02909701515478459</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07674842089009455</v>
+        <v>0.07721478572272093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -1508,19 +1508,19 @@
         <v>39919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28788</v>
+        <v>29112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52657</v>
+        <v>54091</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05063534684295539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03651684129400342</v>
+        <v>0.03692774400809017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06679359891431264</v>
+        <v>0.06861192819281267</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>3002682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2972697</v>
+        <v>2969289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3032984</v>
+        <v>3029355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9296382364973407</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9203546811112893</v>
+        <v>0.9192995057407543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9390198337945077</v>
+        <v>0.9378963356598518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3052</v>
@@ -1633,19 +1633,19 @@
         <v>3128875</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3098886</v>
+        <v>3101164</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3153468</v>
+        <v>3156580</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9438624353583636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9348158840257496</v>
+        <v>0.9355032142738411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9512813280947746</v>
+        <v>0.9522199772266075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5998</v>
@@ -1654,19 +1654,19 @@
         <v>6131557</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6084845</v>
+        <v>6088898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6165173</v>
+        <v>6169629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9368427253538961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9297055873295132</v>
+        <v>0.9303247811337307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9419789366325166</v>
+        <v>0.9426597343710709</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>227265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196963</v>
+        <v>200592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>257250</v>
+        <v>260658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07036176350265932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06098016620549252</v>
+        <v>0.06210366434014838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07964531888871085</v>
+        <v>0.08070049425924611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -1704,19 +1704,19 @@
         <v>186094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161501</v>
+        <v>158389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216083</v>
+        <v>213805</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05613756464163648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04871867190522544</v>
+        <v>0.04778002277339267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06518411597425086</v>
+        <v>0.06449678572615893</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -1725,19 +1725,19 @@
         <v>413359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379743</v>
+        <v>375287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460071</v>
+        <v>456018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06315727464610386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05802106336748323</v>
+        <v>0.05734026562892919</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07029441267048656</v>
+        <v>0.0696752188662694</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>939787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>916123</v>
+        <v>918222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>958300</v>
+        <v>957856</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9010237657497244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8783361103916263</v>
+        <v>0.8803486331545535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9187735965024282</v>
+        <v>0.9183474495568439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>955</v>
@@ -2090,19 +2090,19 @@
         <v>1035633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1015970</v>
+        <v>1017944</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1052517</v>
+        <v>1053550</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9255770689990738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9080036388763845</v>
+        <v>0.9097676189574118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9406667374850483</v>
+        <v>0.9415901428570732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1837</v>
@@ -2111,19 +2111,19 @@
         <v>1975420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1945749</v>
+        <v>1947121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2003396</v>
+        <v>2003545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9137313289913431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9000073176281255</v>
+        <v>0.9006417129195579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9266720552731752</v>
+        <v>0.9267407850361086</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>103234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84721</v>
+        <v>85165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126898</v>
+        <v>124799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0989762342502756</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08122640349757171</v>
+        <v>0.08165255044315634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1216638896083735</v>
+        <v>0.1196513668454466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -2161,19 +2161,19 @@
         <v>83272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66388</v>
+        <v>65355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102935</v>
+        <v>100961</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07442293100092627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05933326251495184</v>
+        <v>0.05840985714292623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09199636112361551</v>
+        <v>0.09023238104258817</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -2182,19 +2182,19 @@
         <v>186506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>158530</v>
+        <v>158381</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216177</v>
+        <v>214805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08626867100865693</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0733279447268249</v>
+        <v>0.07325921496389146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0999926823718746</v>
+        <v>0.09935828708044214</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>923275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>905639</v>
+        <v>902867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>936830</v>
+        <v>936036</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.944939449110482</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9268896690705922</v>
+        <v>0.9240525393358557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9588124728754253</v>
+        <v>0.9580003774155004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>957</v>
@@ -2307,19 +2307,19 @@
         <v>1025336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1007991</v>
+        <v>1007199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1040302</v>
+        <v>1039969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9403250564940523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9244180599540934</v>
+        <v>0.9236916093322731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9540501817139845</v>
+        <v>0.9537443254095465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1835</v>
@@ -2328,19 +2328,19 @@
         <v>1948611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1924738</v>
+        <v>1924737</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1970510</v>
+        <v>1970462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9425057789679319</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9309588227294395</v>
+        <v>0.9309582787307492</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9530978307331256</v>
+        <v>0.9530749637877507</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>53798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40243</v>
+        <v>41037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71434</v>
+        <v>74206</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05506055088951795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04118752712457474</v>
+        <v>0.04199962258449957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07311033092940762</v>
+        <v>0.07594746066414397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -2378,19 +2378,19 @@
         <v>65070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50104</v>
+        <v>50437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82415</v>
+        <v>83207</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0596749435059477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0459498182860155</v>
+        <v>0.04625567459045348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07558194004590657</v>
+        <v>0.07630839066772679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -2399,19 +2399,19 @@
         <v>118868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96969</v>
+        <v>97017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142741</v>
+        <v>142742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05749422103206817</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0469021692668744</v>
+        <v>0.04692503621224935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06904117727056051</v>
+        <v>0.06904172126925084</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>845228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>830760</v>
+        <v>830800</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>855980</v>
+        <v>856995</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9549353414087497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9385897024405263</v>
+        <v>0.9386353186720613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.967083602523831</v>
+        <v>0.9682297302454977</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>787</v>
@@ -2524,19 +2524,19 @@
         <v>839599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>825452</v>
+        <v>824801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>851068</v>
+        <v>849084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9586697342381598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9425168286855145</v>
+        <v>0.941773242784284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9717650944480486</v>
+        <v>0.9695002618731537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1579</v>
@@ -2545,19 +2545,19 @@
         <v>1684827</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1665984</v>
+        <v>1665453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1700574</v>
+        <v>1698527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9567926559990154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9460923536422957</v>
+        <v>0.9457906832099532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.965735290807862</v>
+        <v>0.9645730010858244</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>39887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29135</v>
+        <v>28120</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54355</v>
+        <v>54315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04506465859125033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03291639747616906</v>
+        <v>0.03177026975450226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06141029755947387</v>
+        <v>0.06136468132793875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -2595,19 +2595,19 @@
         <v>36197</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24728</v>
+        <v>26712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50344</v>
+        <v>50995</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04133026576184016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02823490555195143</v>
+        <v>0.0304997381268461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05748317131448537</v>
+        <v>0.05822675721571589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -2616,19 +2616,19 @@
         <v>76084</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60337</v>
+        <v>62384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94927</v>
+        <v>95458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0432073440009846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.034264709192138</v>
+        <v>0.03542699891417554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05390764635770429</v>
+        <v>0.05420931679004675</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>471013</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>456841</v>
+        <v>458174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>480614</v>
+        <v>481189</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.936364338292683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9081905490542418</v>
+        <v>0.9108417010566324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9554516648267691</v>
+        <v>0.9565941257041656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>389</v>
@@ -2741,19 +2741,19 @@
         <v>428864</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>418694</v>
+        <v>418342</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>437402</v>
+        <v>436550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9494638535473228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.926948366265304</v>
+        <v>0.9261680969852029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9683661933459238</v>
+        <v>0.9664793369757322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>819</v>
@@ -2762,19 +2762,19 @@
         <v>899877</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>883337</v>
+        <v>883972</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>912258</v>
+        <v>913578</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9425619385813085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9252370145488189</v>
+        <v>0.9259028242023548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9555303560156607</v>
+        <v>0.9569124707968364</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>32010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22409</v>
+        <v>21834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46182</v>
+        <v>44849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06363566170731705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04454833517323085</v>
+        <v>0.04340587429583435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09180945094575911</v>
+        <v>0.08915829894336759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -2812,19 +2812,19 @@
         <v>22827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14289</v>
+        <v>15141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32997</v>
+        <v>33349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05053614645267727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03163380665407627</v>
+        <v>0.03352066302426795</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0730516337346961</v>
+        <v>0.07383190301479722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -2833,19 +2833,19 @@
         <v>54837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42456</v>
+        <v>41136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71377</v>
+        <v>70742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05743806141869141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04446964398433933</v>
+        <v>0.04308752920316364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0747629854511811</v>
+        <v>0.0740971757976454</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>3179302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3146089</v>
+        <v>3148010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3210554</v>
+        <v>3209558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9328302530425741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9230852053739911</v>
+        <v>0.9236490836716973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9419998206932731</v>
+        <v>0.9417077118487998</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3088</v>
@@ -2958,19 +2958,19 @@
         <v>3329432</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3298193</v>
+        <v>3299048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3356769</v>
+        <v>3356571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9413690819241118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9325364439695812</v>
+        <v>0.932778112323272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9490983706956297</v>
+        <v>0.9490423823508647</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6070</v>
@@ -2979,19 +2979,19 @@
         <v>6508734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6462486</v>
+        <v>6466893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6549295</v>
+        <v>6547700</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9371787027261484</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9305194904920513</v>
+        <v>0.931154044009644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9430189880066774</v>
+        <v>0.9427892913773636</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>228930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197678</v>
+        <v>198674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>262143</v>
+        <v>260222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06716974695742599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05800017930672656</v>
+        <v>0.05829228815120024</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07691479462600838</v>
+        <v>0.07635091632830265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -3029,19 +3029,19 @@
         <v>207366</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180029</v>
+        <v>180227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>238605</v>
+        <v>237750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05863091807588813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05090162930437039</v>
+        <v>0.05095761764913542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06746355603041888</v>
+        <v>0.06722188767672828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>400</v>
@@ -3050,19 +3050,19 @@
         <v>436296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>395735</v>
+        <v>397330</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>482544</v>
+        <v>478137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06282129727385159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05698101199332273</v>
+        <v>0.05721070862263647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06948050950794876</v>
+        <v>0.06884595599035617</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>1010418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>987461</v>
+        <v>989471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1031089</v>
+        <v>1031867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8973574333548029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8769688654784249</v>
+        <v>0.8787542984647799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9157154205841143</v>
+        <v>0.9164062169964625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1114</v>
@@ -3415,19 +3415,19 @@
         <v>1180692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1162849</v>
+        <v>1162202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1196519</v>
+        <v>1197054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9380397779761565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9238640678108248</v>
+        <v>0.9233496249161276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9506141060532106</v>
+        <v>0.9510394080451223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2073</v>
@@ -3436,19 +3436,19 @@
         <v>2191110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2164451</v>
+        <v>2162221</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2218547</v>
+        <v>2217099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9188304208384273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9076512192448946</v>
+        <v>0.9067160028309338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9303361438888622</v>
+        <v>0.9297289147895955</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>115575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94904</v>
+        <v>94126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138532</v>
+        <v>136522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1026425666451972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08428457941588573</v>
+        <v>0.08359378300353738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1230311345215744</v>
+        <v>0.12124570153522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -3486,19 +3486,19 @@
         <v>77988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62161</v>
+        <v>61626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95831</v>
+        <v>96478</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0619602220238435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04938589394678949</v>
+        <v>0.04896059195487767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07613593218917523</v>
+        <v>0.07665037508387242</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -3507,19 +3507,19 @@
         <v>193563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166126</v>
+        <v>167574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220222</v>
+        <v>222452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08116957916157277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0696638561111379</v>
+        <v>0.07027108521040447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09234878075510576</v>
+        <v>0.0932839971690663</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>844531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>828827</v>
+        <v>827775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>859253</v>
+        <v>858873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9292563334715539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9119768924248662</v>
+        <v>0.9108184292344031</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9454546235762287</v>
+        <v>0.9450370069779551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>897</v>
@@ -3632,19 +3632,19 @@
         <v>951293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>935626</v>
+        <v>936023</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>964827</v>
+        <v>963910</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9451728785121232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9296071356050968</v>
+        <v>0.930001605092043</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9586196454414485</v>
+        <v>0.9577088689164861</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1715</v>
@@ -3653,19 +3653,19 @@
         <v>1795824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1775721</v>
+        <v>1773423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1816340</v>
+        <v>1816435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9376203541260217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9271242462883916</v>
+        <v>0.9259244608662158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9483318452083745</v>
+        <v>0.9483817102403352</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>64294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49572</v>
+        <v>49952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79998</v>
+        <v>81050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07074366652844609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05454537642377106</v>
+        <v>0.05496299302204449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08802310757513354</v>
+        <v>0.08918157076559652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -3703,19 +3703,19 @@
         <v>55182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41648</v>
+        <v>42565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70849</v>
+        <v>70452</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05482712148787677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04138035455855162</v>
+        <v>0.04229113108351384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07039286439490326</v>
+        <v>0.06999839490795703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -3724,19 +3724,19 @@
         <v>119476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98960</v>
+        <v>98865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139579</v>
+        <v>141877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06237964587397821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05166815479162543</v>
+        <v>0.05161828975966459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07287575371160832</v>
+        <v>0.07407553913378413</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>764797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>747550</v>
+        <v>749269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>778560</v>
+        <v>777505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9317265430542897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9107155382168031</v>
+        <v>0.9128093857719791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9484936321694386</v>
+        <v>0.9472092100252664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>683</v>
@@ -3849,19 +3849,19 @@
         <v>725132</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>708928</v>
+        <v>710892</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>736723</v>
+        <v>736558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9416256830556916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.920584662457349</v>
+        <v>0.9231340683718481</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9566780654080741</v>
+        <v>0.9564632114805223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1414</v>
@@ -3870,19 +3870,19 @@
         <v>1489928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1469190</v>
+        <v>1468507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1508681</v>
+        <v>1508733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9365182126700751</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9234828844360212</v>
+        <v>0.9230534779990762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9483057855162672</v>
+        <v>0.948337913036104</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>56041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42278</v>
+        <v>43333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73288</v>
+        <v>71569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06827345694571031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05150636783056122</v>
+        <v>0.05279078997473353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08928446178319681</v>
+        <v>0.08719061422802081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -3920,19 +3920,19 @@
         <v>44953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33362</v>
+        <v>33527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61157</v>
+        <v>59193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05837431694430836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04332193459192595</v>
+        <v>0.0435367885194776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07941533754265089</v>
+        <v>0.07686593162815188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -3941,19 +3941,19 @@
         <v>100995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82242</v>
+        <v>82190</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121733</v>
+        <v>122416</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06348178732992496</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05169421448373286</v>
+        <v>0.05166208696389585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07651711556397978</v>
+        <v>0.07694652200092372</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>462269</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>448160</v>
+        <v>447253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>474232</v>
+        <v>472940</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9158820701924772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8879297129222974</v>
+        <v>0.8861314813544752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9395840036153802</v>
+        <v>0.9370243434458135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>422</v>
@@ -4066,19 +4066,19 @@
         <v>456176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>443723</v>
+        <v>444189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>466452</v>
+        <v>465469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9336683224436598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9081788886517347</v>
+        <v>0.9091330897102883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9546990864656132</v>
+        <v>0.9526879946798016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>854</v>
@@ -4087,19 +4087,19 @@
         <v>918445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>898978</v>
+        <v>899054</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>933598</v>
+        <v>933701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9246307012933321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.905032759297425</v>
+        <v>0.9051094907899163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9398855690626268</v>
+        <v>0.9399890470650746</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>42456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30493</v>
+        <v>31785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56565</v>
+        <v>57472</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08411792980752274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06041599638461979</v>
+        <v>0.06297565655418651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1120702870777027</v>
+        <v>0.1138685186455246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -4137,19 +4137,19 @@
         <v>32409</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22133</v>
+        <v>23116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44862</v>
+        <v>44396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06633167755634017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0453009135343868</v>
+        <v>0.04731200532019844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09182111134826532</v>
+        <v>0.09086691028971176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>69</v>
@@ -4158,19 +4158,19 @@
         <v>74865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59712</v>
+        <v>59609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>94332</v>
+        <v>94256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07536929870666791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06011443093737321</v>
+        <v>0.06001095293492546</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0949672407025752</v>
+        <v>0.09489050921008371</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>3082014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3048662</v>
+        <v>3049572</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3113603</v>
+        <v>3114597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9171622827890763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9072373365532801</v>
+        <v>0.9075082276209664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9265629012843413</v>
+        <v>0.926858678775674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3116</v>
@@ -4283,19 +4283,19 @@
         <v>3313293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3281381</v>
+        <v>3283633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3337282</v>
+        <v>3337058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9402546752390525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9311987304841647</v>
+        <v>0.9318375733208457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9470622346100135</v>
+        <v>0.9469987347752059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6056</v>
@@ -4304,19 +4304,19 @@
         <v>6395308</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6350080</v>
+        <v>6352352</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6435749</v>
+        <v>6438536</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.928982608929639</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9224128710185803</v>
+        <v>0.9227428093150092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9348570827889693</v>
+        <v>0.9352619680183669</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>278366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246777</v>
+        <v>245783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311718</v>
+        <v>310808</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08283771721092373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07343709871565866</v>
+        <v>0.07314132122432596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09276266344671959</v>
+        <v>0.09249177237903342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -4354,19 +4354,19 @@
         <v>210532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186543</v>
+        <v>186767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>242444</v>
+        <v>240192</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05974532476094747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05293776538998674</v>
+        <v>0.0530012652247942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06880126951583565</v>
+        <v>0.06816242667915431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>461</v>
@@ -4375,19 +4375,19 @@
         <v>488898</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>448457</v>
+        <v>445670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>534126</v>
+        <v>531854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07101739107036101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06514291721103094</v>
+        <v>0.06473803198163311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07758712898141976</v>
+        <v>0.07725719068499112</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>422861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>401867</v>
+        <v>404830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>439444</v>
+        <v>439089</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8478598743506349</v>
+        <v>0.8478598743506351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.805765968731549</v>
+        <v>0.8117069162966439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8811096564675037</v>
+        <v>0.8803988379689071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>755</v>
@@ -4740,19 +4740,19 @@
         <v>546324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>529854</v>
+        <v>529759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>559688</v>
+        <v>560152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8761089196660157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8496970949054115</v>
+        <v>0.849544459745425</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8975398638721174</v>
+        <v>0.8982837050457108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1139</v>
@@ -4761,19 +4761,19 @@
         <v>969186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>944508</v>
+        <v>943174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>990160</v>
+        <v>989521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8635555346007012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8415675561979818</v>
+        <v>0.8403788711711885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8822442480285454</v>
+        <v>0.8816742411817995</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>75878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59295</v>
+        <v>59650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96872</v>
+        <v>93909</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.152140125649365</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1188903435324961</v>
+        <v>0.1196011620310927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1942340312684509</v>
+        <v>0.1882930837033558</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -4811,19 +4811,19 @@
         <v>77256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63892</v>
+        <v>63428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93726</v>
+        <v>93821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1238910803339844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1024601361278824</v>
+        <v>0.1017162949542892</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1503029050945886</v>
+        <v>0.1504555402545748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -4832,19 +4832,19 @@
         <v>153134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>132160</v>
+        <v>132799</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177812</v>
+        <v>179146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1364444653992989</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1177557519714545</v>
+        <v>0.1183257588182014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1584324438020183</v>
+        <v>0.1596211288288118</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>838534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>813157</v>
+        <v>812998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>859504</v>
+        <v>860353</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.873347911639747</v>
+        <v>0.8733479116397472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8469176368861889</v>
+        <v>0.8467521797899261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8951884020779686</v>
+        <v>0.8960726459308425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1441</v>
@@ -4957,19 +4957,19 @@
         <v>999271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>980067</v>
+        <v>980958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1015367</v>
+        <v>1015716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8955254404152574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8783148276746104</v>
+        <v>0.8791140100459287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9099506134597335</v>
+        <v>0.9102626081479467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2243</v>
@@ -4978,19 +4978,19 @@
         <v>1837805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1807660</v>
+        <v>1806256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1865137</v>
+        <v>1864097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8852684064521112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8707477699825723</v>
+        <v>0.8700714885468696</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8984341114783877</v>
+        <v>0.897933346292658</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>121603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100633</v>
+        <v>99784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146980</v>
+        <v>147139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.126652088360253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1048115979220315</v>
+        <v>0.1039273540691577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1530823631138109</v>
+        <v>0.1532478202100739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -5028,19 +5028,19 @@
         <v>116578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100482</v>
+        <v>100133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>135782</v>
+        <v>134891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1044745595847424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09004938654026588</v>
+        <v>0.08973739185205336</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1216851723253893</v>
+        <v>0.1208859899540716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>274</v>
@@ -5049,19 +5049,19 @@
         <v>238181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>210849</v>
+        <v>211889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>268326</v>
+        <v>269730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1147315935478887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1015658885216122</v>
+        <v>0.1020666537073422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1292522300174277</v>
+        <v>0.1299285114531304</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>909201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>884112</v>
+        <v>883219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>931391</v>
+        <v>930594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8688194923178665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8448440026305776</v>
+        <v>0.8439915777723715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8900237980104468</v>
+        <v>0.8892616964430415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1365</v>
@@ -5174,19 +5174,19 @@
         <v>934536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>915644</v>
+        <v>913338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>951796</v>
+        <v>951665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.892037497400764</v>
+        <v>0.8920374974007641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8740044713866801</v>
+        <v>0.8718030964954323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9085123312671879</v>
+        <v>0.9083878374262888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2270</v>
@@ -5195,19 +5195,19 @@
         <v>1843737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1812469</v>
+        <v>1812991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1872623</v>
+        <v>1873183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8804349385218845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8655035636882751</v>
+        <v>0.8657528789213658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8942287346783483</v>
+        <v>0.8944961010396133</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>137278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115088</v>
+        <v>115885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162367</v>
+        <v>163260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1311805076821335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1099762019895533</v>
+        <v>0.1107383035569584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1551559973694226</v>
+        <v>0.1560084222276281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -5245,19 +5245,19 @@
         <v>113106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95846</v>
+        <v>95977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131998</v>
+        <v>134304</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1079625025992361</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09148766873281157</v>
+        <v>0.09161216257371124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1259955286133196</v>
+        <v>0.1281969035045678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -5266,19 +5266,19 @@
         <v>250384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>221498</v>
+        <v>220938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281652</v>
+        <v>281130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1195650614781155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1057712653216518</v>
+        <v>0.1055038989603867</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1344964363117253</v>
+        <v>0.1342471210786343</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>869973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>847274</v>
+        <v>844593</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>890064</v>
+        <v>889226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8914301508726022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8681714359809732</v>
+        <v>0.8654245800247636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.912017159518043</v>
+        <v>0.9111587286018866</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1185</v>
@@ -5391,19 +5391,19 @@
         <v>806398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>787226</v>
+        <v>786523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>823943</v>
+        <v>823134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8878583419954756</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.866749323739695</v>
+        <v>0.8659749210491255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9071752442557386</v>
+        <v>0.9062843557934415</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2041</v>
@@ -5412,19 +5412,19 @@
         <v>1676371</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1647390</v>
+        <v>1646125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1704426</v>
+        <v>1703496</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8897083949157562</v>
+        <v>0.889708394915756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.874327152181159</v>
+        <v>0.8736558272765497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.904598147052487</v>
+        <v>0.9041047411112227</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>105956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85865</v>
+        <v>86703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128655</v>
+        <v>131336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1085698491273979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08798284048195702</v>
+        <v>0.08884127139811331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1318285640190267</v>
+        <v>0.1345754199752361</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -5462,19 +5462,19 @@
         <v>101853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84308</v>
+        <v>85117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121025</v>
+        <v>121728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1121416580045244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09282475574426144</v>
+        <v>0.09371564420655858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.133250676260305</v>
+        <v>0.1340250789508743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>226</v>
@@ -5483,19 +5483,19 @@
         <v>207809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>179754</v>
+        <v>180684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>236790</v>
+        <v>238055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1102916050842439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09540185294751306</v>
+        <v>0.09589525888877753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.125672847818841</v>
+        <v>0.1263441727234502</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>3040568</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2992291</v>
+        <v>2994516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3084134</v>
+        <v>3081870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8734042702337814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.859536672046376</v>
+        <v>0.8601758323139909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8859186487192392</v>
+        <v>0.885268305417134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4746</v>
@@ -5608,19 +5608,19 @@
         <v>3286529</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3247864</v>
+        <v>3253640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3318223</v>
+        <v>3320610</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8893756321992208</v>
+        <v>0.8893756321992209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8789122119046037</v>
+        <v>0.8804753646091044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8979522447862239</v>
+        <v>0.8985981625063422</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7693</v>
@@ -5629,19 +5629,19 @@
         <v>6327098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6270610</v>
+        <v>6271726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6387870</v>
+        <v>6384656</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8816281187858863</v>
+        <v>0.8816281187858864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8737569896582243</v>
+        <v>0.8739124867254038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8900962642249606</v>
+        <v>0.8896483848674687</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>440716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>397150</v>
+        <v>399414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>488993</v>
+        <v>486768</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1265957297662186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1140813512807606</v>
+        <v>0.1147316945828656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1404633279536241</v>
+        <v>0.1398241676860091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>558</v>
@@ -5679,19 +5679,19 @@
         <v>408793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377099</v>
+        <v>374712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>447458</v>
+        <v>441682</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1106243678007792</v>
+        <v>0.1106243678007791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1020477552137763</v>
+        <v>0.1014018374936566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1210877880953964</v>
+        <v>0.1195246353908949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>952</v>
@@ -5700,19 +5700,19 @@
         <v>849508</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>788736</v>
+        <v>791950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>905996</v>
+        <v>904880</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1183718812141136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1099037357750394</v>
+        <v>0.1103516151325312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1262430103417755</v>
+        <v>0.1260875132745961</v>
       </c>
     </row>
     <row r="18">
